--- a/Celtics25SQLProject/PivotChartandTableForCeltics25.xlsx
+++ b/Celtics25SQLProject/PivotChartandTableForCeltics25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1007364/Projects/ITE140/Celtics25SQLProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47028574-6CB9-724E-8C5F-A577E7A67BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A13B2E-4D63-F545-AAA7-272284DBC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="7" r:id="rId1"/>
@@ -19,11 +19,24 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Sheet1 (2)'!$A$1:$D$6</definedName>
+    <definedName name="Slicer_contractyears">#N/A</definedName>
+    <definedName name="Slicer_lastname">#N/A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="22" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>firstname</t>
   </si>
@@ -676,47 +689,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$2:$A$7</c:f>
+              <c:f>Sheet4!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Brown</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Holiday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Porzingis</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Tatum</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$B$7</c:f>
+              <c:f>Sheet4!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>30000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>32000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,47 +748,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$2:$A$7</c:f>
+              <c:f>Sheet4!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Brown</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Holiday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Porzingis</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Tatum</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$C$2:$C$7</c:f>
+              <c:f>Sheet4!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>150000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>160000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,6 +1581,162 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117469</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="lastname">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9665FF1-18CA-CB39-2E9D-EF5D4F7BA6A3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="lastname"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3149600" y="2641600"/>
+              <a:ext cx="1828800" cy="2428869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117469</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="contractyears">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5470D424-B249-6A46-7FA2-F18A1E8790BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="contractyears"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4978400" y="2641600"/>
+              <a:ext cx="1828800" cy="2428869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1632,16 +1765,27 @@
       </sharedItems>
     </cacheField>
     <cacheField name="contractsalary" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000000" maxValue="32000000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000000" maxValue="32000000" count="5">
+        <n v="16000000"/>
+        <n v="10000000"/>
+        <n v="30000000"/>
+        <n v="32000000"/>
+        <n v="20000000"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="contractyears" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5" count="4">
+        <n v="2"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="TotalContractPrice" numFmtId="0" formula="PRODUCT(contractsalary,contractyears )" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1530129369"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1652,39 +1796,39 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="16000000"/>
-    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="10000000"/>
-    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="30000000"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="32000000"/>
-    <n v="5"/>
+    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="20000000"/>
-    <n v="3"/>
+    <x v="4"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B324C6E5-CF9F-9843-9A6C-CB13E95440A6}" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B324C6E5-CF9F-9843-9A6C-CB13E95440A6}" name="PivotTable3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -1697,28 +1841,36 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1772,7 +1924,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEBB3589-EDFA-3247-A271-2E0B0286A37F}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEBB3589-EDFA-3247-A271-2E0B0286A37F}" name="PivotTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1851,6 +2003,50 @@
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_lastname" xr10:uid="{67572CEE-38DB-7B4C-BED6-FE735BD54C62}" sourceName="lastname">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1530129369">
+      <items count="5">
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_contractyears" xr10:uid="{6F967704-B75B-3143-B997-65A1F7BBC790}" sourceName="contractyears">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1530129369">
+      <items count="4">
+        <i x="0"/>
+        <i x="3"/>
+        <i x="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="lastname" xr10:uid="{5AEBA748-B2C8-1942-BBEB-C1263928D7E5}" cache="Slicer_lastname" caption="lastname" rowHeight="230716"/>
+  <slicer name="contractyears" xr10:uid="{245ABB85-CEA6-0442-8FF5-6B387E44E42E}" cache="Slicer_contractyears" caption="contractyears" rowHeight="230716"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2151,9 +2347,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50D8BE2-AA10-FE41-B1A0-3993734387DE}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -2188,62 +2384,36 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>16000000</v>
+        <v>32000000</v>
       </c>
       <c r="C3" s="1">
-        <v>32000000</v>
+        <v>160000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>20000000</v>
+        <v>62000000</v>
       </c>
       <c r="C4" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>32000000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>160000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>108000000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2052000000</v>
+        <v>620000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2251,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE0083E-FA36-E647-9580-14A241C5B1B9}">
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
